--- a/tests/fixtures/verification/cases/stochastic/00003/00003-wc_lang_2_submodels.xlsx
+++ b/tests/fixtures/verification/cases/stochastic/00003/00003-wc_lang_2_submodels.xlsx
@@ -2873,7 +2873,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3092,7 +3092,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3309,7 +3309,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3689,7 +3689,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4001,7 +4001,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4272,7 +4272,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4508,7 +4508,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4763,7 +4763,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5053,7 +5053,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5271,7 +5271,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5803,7 +5803,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6125,7 +6125,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6290,7 +6290,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6626,7 +6626,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7023,7 +7023,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7309,7 +7309,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7683,7 +7683,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -7857,7 +7857,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8039,7 +8039,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8264,7 +8264,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8769,7 +8769,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9105,7 +9105,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9353,7 +9353,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
